--- a/Summary_k_UV.xlsx
+++ b/Summary_k_UV.xlsx
@@ -444,22 +444,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aquabirnavirus salmonidae</t>
+          <t>Alphavirus venezuelan</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aquabirnavirus</t>
+          <t>Alphavirus</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.04604666666666667</v>
-      </c>
-      <c r="D4">
-        <v>0.01774551868313049</v>
+        <v>0.43956</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -470,19 +467,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Barfin flounder nervous necrosis virus</t>
+          <t>Aquabirnavirus salmonidae</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Betanodavirus</t>
+          <t>Aquabirnavirus</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.05234</v>
+        <v>0.04604666666666667</v>
+      </c>
+      <c r="D5">
+        <v>0.01774551868313049</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -493,22 +493,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cardiovirus A</t>
+          <t>Betanodavirus verasperi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cardiovirus</t>
+          <t>Betanodavirus</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.3999</v>
-      </c>
-      <c r="D6">
-        <v>0.07085209947489207</v>
+        <v>0.05234</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,19 +516,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cystovirus phi6</t>
+          <t>Cardiovirus rueckerti</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cystovirus</t>
+          <t>Cardiovirus</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.0669</v>
+        <v>0.3999</v>
+      </c>
+      <c r="D7">
+        <v>0.07085209947489207</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -542,22 +542,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Emesvirus japonicum</t>
+          <t>Cystovirus phi6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emesvirus</t>
+          <t>Cystovirus</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.09529</v>
-      </c>
-      <c r="D8">
-        <v>0.0004242640687119211</v>
+        <v>0.0669</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -568,7 +565,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Emesvirus zinderi</t>
+          <t>Emesvirus japonicum</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -577,13 +574,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.1214654226236636</v>
+        <v>0.09529</v>
       </c>
       <c r="D9">
-        <v>0.06641066640094324</v>
+        <v>0.0004242640687119211</v>
       </c>
       <c r="E9">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -594,33 +591,33 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Enterovirus B</t>
+          <t>Emesvirus zinderi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enterovirus</t>
+          <t>Emesvirus</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.3139888888888889</v>
+        <v>0.1214654226236636</v>
       </c>
       <c r="D10">
-        <v>0.04859077701695159</v>
+        <v>0.06641066640094324</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Enterovirus C</t>
+          <t>Enterovirus betacoxsackie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -629,13 +626,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.30677</v>
+        <v>0.3139888888888889</v>
       </c>
       <c r="D11">
-        <v>0.06949308598702464</v>
+        <v>0.04859077701695159</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -646,33 +643,33 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Felicine caliciirus</t>
+          <t>Enterovirus coxsackiepol</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vesivirus</t>
+          <t>Enterovirus</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.32395</v>
+        <v>0.30677</v>
       </c>
       <c r="D12">
-        <v>0.09861115048512516</v>
+        <v>0.06949308598702464</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hepatovirus A</t>
+          <t>Hepatovirus ahepa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,56 +695,59 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Human mastadenovirus C</t>
+          <t>Isavirus salaris</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mastadenovirus</t>
+          <t>Isavirus</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.06335</v>
+        <v>1.4315</v>
       </c>
       <c r="D14">
-        <v>0.01631807920960396</v>
+        <v>0.8294362543318201</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Human mastadenovirus D</t>
+          <t>Lambdavirus lambda</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mastadenovirus</t>
+          <t>Lambdavirus</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.05352</v>
+        <v>0.47485</v>
+      </c>
+      <c r="D15">
+        <v>0.1321582574037657</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Human mastadenovirus F</t>
+          <t>Mastadenovirus caesari</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -756,13 +756,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.05747857142857143</v>
+        <v>0.06335</v>
       </c>
       <c r="D16">
-        <v>0.01852724681989407</v>
+        <v>0.01631807920960396</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -773,74 +773,71 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Isavirus salaris</t>
+          <t>Mastadenovirus dominans</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Isavirus</t>
+          <t>Mastadenovirus</t>
         </is>
       </c>
       <c r="C17">
-        <v>1.4315</v>
-      </c>
-      <c r="D17">
-        <v>0.8294362543318201</v>
+        <v>0.05352</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lambdavirus lambda</t>
+          <t>Mastadenovirus faecale</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lambdavirus</t>
+          <t>Mastadenovirus</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.47485</v>
+        <v>0.05747857142857143</v>
       </c>
       <c r="D18">
-        <v>0.1321582574037657</v>
+        <v>0.01852724681989407</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mammalian orthoreovirus</t>
+          <t>Norovirus norwalkense</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Orthoreovirus</t>
+          <t>Norovirus</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.16285</v>
+        <v>0.327</v>
       </c>
       <c r="D19">
-        <v>0.03839589821842954</v>
+        <v>0.02423468588614264</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -851,22 +848,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Norwalk virus</t>
+          <t>Novirhabdovirus piscine</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Norovirus</t>
+          <t>Novirhabdovirus</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.327</v>
+        <v>5.686999999999999</v>
       </c>
       <c r="D20">
-        <v>0.02423468588614264</v>
+        <v>2.713875826193969</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -877,22 +874,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Novirhabdovirus piscine</t>
+          <t>Orthopoxvirus vaccinia</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Novirhabdovirus</t>
+          <t>Orthopoxvirus</t>
         </is>
       </c>
       <c r="C21">
-        <v>5.686999999999999</v>
-      </c>
-      <c r="D21">
-        <v>2.713875826193969</v>
+        <v>0.83</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -903,19 +897,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Protoparvovirus rodent1</t>
+          <t>Orthoreovirus mammalis</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Protoparvovirus</t>
+          <t>Orthoreovirus</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.9944</v>
+        <v>0.16285</v>
+      </c>
+      <c r="D22">
+        <v>0.03839589821842954</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -926,74 +923,68 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Qubevirus durum</t>
+          <t>Paslahepevirus balayani</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Qubevirus</t>
+          <t>Paslahepevirus</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1945</v>
-      </c>
-      <c r="D23">
-        <v>0.0361547783840532</v>
+        <v>0.3801</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rotavirus A</t>
+          <t>Protoparvovirus rodent1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rotavirus</t>
+          <t>Protoparvovirus</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.2168</v>
-      </c>
-      <c r="D24">
-        <v>0.06325633565106345</v>
+        <v>0.9944</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sinsheimervirus phiX174</t>
+          <t>Qubevirus durum</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sinsheimervirus</t>
+          <t>Qubevirus</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.8583272727272727</v>
+        <v>0.1945</v>
       </c>
       <c r="D25">
-        <v>0.2705784215007142</v>
+        <v>0.0361547783840532</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1004,48 +995,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tequatrovirus T2</t>
+          <t>Rotavirus alphagastroenteritidis</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tequatrovirus</t>
+          <t>Rotavirus</t>
         </is>
       </c>
       <c r="C26">
-        <v>5.081</v>
+        <v>0.2168</v>
       </c>
       <c r="D26">
-        <v>0.3973940110268399</v>
+        <v>0.06325633565106345</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tequatrovirus T4</t>
+          <t>Sinsheimervirus phiX174</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tequatrovirus</t>
+          <t>Sinsheimervirus</t>
         </is>
       </c>
       <c r="C27">
-        <v>1.68585</v>
+        <v>0.8583272727272727</v>
       </c>
       <c r="D27">
-        <v>0.7308974586082511</v>
+        <v>0.2705784215007142</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1056,7 +1047,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tequatrovirus T6</t>
+          <t>Tequatrovirus T2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1065,10 +1056,13 @@
         </is>
       </c>
       <c r="C28">
-        <v>5.362</v>
+        <v>5.081</v>
+      </c>
+      <c r="D28">
+        <v>0.3973940110268399</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1079,19 +1073,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tequintavirus T5</t>
+          <t>Tequatrovirus T4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tequintavirus</t>
+          <t>Tequatrovirus</t>
         </is>
       </c>
       <c r="C29">
-        <v>4.363</v>
+        <v>1.68585</v>
+      </c>
+      <c r="D29">
+        <v>0.7308974586082511</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1102,22 +1099,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Teseptimavirus T7</t>
+          <t>Tequatrovirus T6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Teseptimavirus</t>
+          <t>Tequatrovirus</t>
         </is>
       </c>
       <c r="C30">
-        <v>0.7064333333333334</v>
-      </c>
-      <c r="D30">
-        <v>0.2453728156635666</v>
+        <v>5.362</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1128,22 +1122,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tunavirus T1</t>
+          <t>Tequintavirus T5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tunavirus</t>
+          <t>Tequintavirus</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.57674</v>
-      </c>
-      <c r="D31">
-        <v>0.1883750328467124</v>
+        <v>4.363</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1154,19 +1145,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Vaccinia virus</t>
+          <t>Teseptimavirus T7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Orthopoxvirus</t>
+          <t>Teseptimavirus</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.83</v>
+        <v>0.7064333333333334</v>
+      </c>
+      <c r="D32">
+        <v>0.2453728156635666</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1177,19 +1171,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Venezuelan equine encephalitis virus</t>
+          <t>Tunavirus T1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alphavirus</t>
+          <t>Tunavirus</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.43956</v>
+        <v>0.57674</v>
+      </c>
+      <c r="D33">
+        <v>0.1883750328467124</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1223,22 +1220,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>unclassified Caudoviricetes</t>
+          <t>Vesivirus felis</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>unclassified Caudoviricetes</t>
+          <t>Vesivirus</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2828666666666667</v>
+        <v>0.32395</v>
       </c>
       <c r="D35">
-        <v>0.04817465620012248</v>
+        <v>0.09861115048512516</v>
       </c>
       <c r="E35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1249,19 +1246,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>unclassified Okubovirus</t>
+          <t>unclassified Caudoviricetes</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Okubovirus</t>
+          <t>unclassified Caudoviricetes</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.5877</v>
+        <v>0.2828666666666667</v>
+      </c>
+      <c r="D36">
+        <v>0.04817465620012248</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>unclassified Orthohepevirus</t>
+          <t>unclassified Okubovirus</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Orthohepevirus</t>
+          <t>Okubovirus</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.3801</v>
+        <v>0.5877</v>
       </c>
       <c r="E37">
         <v>1</v>
